--- a/ExpAnalyzer/DataSheets/ExpAnalyzer_機種スペック調査結果.xlsx
+++ b/ExpAnalyzer/DataSheets/ExpAnalyzer_機種スペック調査結果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CA1DFD-2392-4DC5-9A9E-7307F9F066BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB15A97-9A35-4F8F-B92B-BE264DCE331C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6000" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{8723289B-3646-424C-8D00-92CC71EBD46D}"/>
+    <workbookView xWindow="6420" yWindow="21480" windowWidth="38640" windowHeight="21240" xr2:uid="{8723289B-3646-424C-8D00-92CC71EBD46D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>パチンコ機種別スペック調査</t>
     <rPh sb="4" eb="6">
@@ -184,6 +184,57 @@
     <rPh sb="8" eb="10">
       <t>カクリツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>51 or 50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>75 or 81</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎上モード中転落小当たり確率：5.4</t>
+    <rPh sb="0" eb="2">
+      <t>エンジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テンラク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 or 250</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14 or 1004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104 or 111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70 or 81</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>120 or 163</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5 or 10004</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -614,7 +665,7 @@
   <cols>
     <col min="1" max="1" width="40.125" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -767,65 +818,137 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
+      <c r="B8" s="2">
+        <v>319.7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="B9" s="2">
+        <v>319.7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2">
+        <v>75</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="B10" s="2">
+        <v>319.89999999999998</v>
+      </c>
+      <c r="C10" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>81</v>
+      </c>
+      <c r="F10" s="2">
+        <v>159</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2">
+        <v>33</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="B11" s="2">
+        <v>319.7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>99.9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="B12" s="2">
+        <v>319.7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.97</v>
+      </c>
+      <c r="D12" s="2">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2">
+        <v>81</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I12" s="1"/>
     </row>
   </sheetData>

--- a/ExpAnalyzer/DataSheets/ExpAnalyzer_機種スペック調査結果.xlsx
+++ b/ExpAnalyzer/DataSheets/ExpAnalyzer_機種スペック調査結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB15A97-9A35-4F8F-B92B-BE264DCE331C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1109B91-6925-48DF-A7BF-3D6431170A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="21480" windowWidth="38640" windowHeight="21240" xr2:uid="{8723289B-3646-424C-8D00-92CC71EBD46D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8723289B-3646-424C-8D00-92CC71EBD46D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>パチンコ機種別スペック調査</t>
     <rPh sb="4" eb="6">
@@ -219,10 +219,6 @@
   </si>
   <si>
     <t>14 or 1004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>104 or 111</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -259,12 +255,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -324,7 +338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,13 +348,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,31 +700,31 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -730,58 +756,58 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>319.60000000000002</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>99.9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>55</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <v>77</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <v>144</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="1"/>
+      <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>319.7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>41.1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>60</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="6">
         <v>81</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="6">
         <v>10000</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -844,85 +870,85 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="8">
         <v>319.7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="8">
         <v>10.7</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="8">
         <v>60</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="8">
         <v>75</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="1"/>
+      <c r="G9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>319.89999999999998</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>97.7</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>64</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="6">
         <v>81</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="6">
         <v>159</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="6">
+        <v>104</v>
+      </c>
+      <c r="H10" s="6">
+        <v>111</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6">
+        <v>319.7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>99.9</v>
+      </c>
+      <c r="D11" s="6">
+        <v>70</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="2">
-        <v>33</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2">
-        <v>319.7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>99.9</v>
-      </c>
-      <c r="D11" s="2">
-        <v>70</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="G11" s="6">
         <v>100</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1"/>
+      <c r="H11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
@@ -944,7 +970,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>18</v>

--- a/ExpAnalyzer/DataSheets/ExpAnalyzer_機種スペック調査結果.xlsx
+++ b/ExpAnalyzer/DataSheets/ExpAnalyzer_機種スペック調査結果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakehiroSomekawa\source\repos\ExpAnalyzer\ExpAnalyzer\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1109B91-6925-48DF-A7BF-3D6431170A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2FADD9-A41F-4159-9A1D-42E459B49325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8723289B-3646-424C-8D00-92CC71EBD46D}"/>
+    <workbookView xWindow="-6660" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{8723289B-3646-424C-8D00-92CC71EBD46D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>パチンコ機種別スペック調査</t>
     <rPh sb="4" eb="6">
@@ -231,6 +231,10 @@
   </si>
   <si>
     <t>5 or 10004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reゼロから始める異世界生活-season2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -683,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2B6FCB-74AA-4D8D-92E9-D4D110BFA52A}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,10 +761,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6">
-        <v>319.60000000000002</v>
+        <v>349.9</v>
       </c>
       <c r="C5" s="6">
         <v>99.9</v>
@@ -772,7 +776,7 @@
         <v>77</v>
       </c>
       <c r="F5" s="6">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>18</v>
@@ -784,198 +788,225 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>319.60000000000002</v>
+      </c>
+      <c r="C6" s="6">
+        <v>99.9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>55</v>
+      </c>
+      <c r="E6" s="6">
+        <v>77</v>
+      </c>
+      <c r="F6" s="6">
+        <v>144</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="6">
         <v>319.7</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="6">
         <v>41.1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="6">
         <v>60</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E7" s="6">
         <v>81</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="6">
         <v>10000</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="G7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>319.7</v>
-      </c>
-      <c r="C7" s="2">
-        <v>84</v>
-      </c>
-      <c r="D7" s="2">
-        <v>66</v>
-      </c>
-      <c r="E7" s="2">
-        <v>81</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2">
-        <v>100</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>319.7</v>
       </c>
       <c r="C8" s="2">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2">
+        <v>66</v>
+      </c>
+      <c r="E8" s="2">
+        <v>81</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>319.7</v>
+      </c>
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B10" s="8">
         <v>319.7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C10" s="8">
         <v>10.7</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <v>60</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="8">
         <v>75</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6">
-        <v>319.89999999999998</v>
-      </c>
-      <c r="C10" s="6">
-        <v>97.7</v>
-      </c>
-      <c r="D10" s="6">
-        <v>64</v>
-      </c>
-      <c r="E10" s="6">
-        <v>81</v>
-      </c>
-      <c r="F10" s="6">
-        <v>159</v>
-      </c>
-      <c r="G10" s="6">
-        <v>104</v>
-      </c>
-      <c r="H10" s="6">
-        <v>111</v>
-      </c>
-      <c r="I10" s="5"/>
+      <c r="G10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6">
+        <v>319.89999999999998</v>
+      </c>
+      <c r="C11" s="6">
+        <v>97.7</v>
+      </c>
+      <c r="D11" s="6">
+        <v>64</v>
+      </c>
+      <c r="E11" s="6">
+        <v>81</v>
+      </c>
+      <c r="F11" s="6">
+        <v>159</v>
+      </c>
+      <c r="G11" s="6">
+        <v>104</v>
+      </c>
+      <c r="H11" s="6">
+        <v>111</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="6">
         <v>319.7</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="6">
         <v>99.9</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="6">
         <v>70</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G12" s="6">
         <v>100</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+      <c r="H12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>319.7</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>3.97</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>65</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>81</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="1"/>
+      <c r="H13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
